--- a/500all/speech_level/speeches_CHRG-114hhrg95055.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95055.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="426">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412488</t>
   </si>
   <si>
-    <t>Sean P. Duffy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Duffy. The Oversight and Investigations Subcommittee will come to order.    The title of today's subcommittee hearing is, ``The Federal Deposit Insurance Corporation's Role in Operation Choke Point.''    Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Also, without objection, members of the full Financial Services Committee who are not members of this subcommittee may participate in today's hearing for the purpose of making an opening statement and questioning the witness, FDIC Chairman Martin Gruenberg.    The Chair now recognizes himself for 3 minutes for an opening statement.    Thank you for being here, Chairman Gruenberg. I want to thank you for your willingness and commitment to working with this subcommittee. Both you and your staff have been very responsive to our requests, releasing documents to us and making your staff available for questioning throughout the past week.    I was, however, very surprised and troubled to learn that the White House doesn't share the same confidence in our mutual cooperation. As you know, we asked three members of your staff to voluntarily meet with both Majority and Minority committee staff for interviews and they all complied voluntarily.    Before one of the interviews, however, I understand there was a telephone conversation between the White House and the FDIC General Counsel in which concerns were raised over the former Acting General Counsel's voluntary participation in the oversight process. To his credit, the FDIC former Acting General Counsel, nonetheless, appeared as scheduled and met with committee staff. Kudos to him.    I hope that this afternoon you will not be deterred by the White House's interference, instead continuing to be forthcoming when answering our questions about how your agency is working to repair the business relationships that have been destroyed and damaged since the FDIC's so-called high-risk list was released several years ago.    As many Members know, this is the subcommittee's second hearing on the topic of Operation Choke Point, and the second hearing where representatives from the FDIC have appeared to discuss their role in it.    Since then, most of the staff that we have spoken to at the FDIC, including you, Chairman Gruenberg, have contended that you have not participated with the DOJ in Operation Choke Point, nor is the FDIC taking part in any way in Operation Choke Point. I imagine that will also be in your testimony today.    But Members have heard from too many of our constituents that even if the FDIC isn't calling it Operation Choke Point, examiners within the FDIC are making morally-based directives on what is legal and law-abiding for businesses as they find banking partners.    Using the term ``reputational risk,'' they are warning banks that if they do business with gun dealers, short-term lenders, payday lenders, ammunition manufacturers, smoke shops, and other legal businesses, they will meet the wrath of the FDIC. And if you disagree, Mr. Chairman, we have emails and memos from the FDIC to prove it. Their purpose is to choke off the business they don't like from the banking system.    I asked you to testify today, Chairman Gruenberg, because I want to know where you got the target list from several years ago. And, like the IRS, I fear that activists at the DOJ and the FDIC are abusing their power and authority and are going after legal businesses and, in effect, they are weaponizing government to meet their ideological beliefs. I hope that today, Chairman Gruenberg, you can convince us that is not the case.    With that, I now yield to the ranking member of the subcommittee, Mr. Green from North Carolina, for 5 minutes.</t>
   </si>
   <si>
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    And, if I may, I will be from Texas today.    Mr. Chairman, if I may just take a moment of my time to congratulate Jason, who is a part of our team. As you know, our staff does excellent work. And Jason, who is a part of our team, is not here today. He is on his way to celebrate his marriage. And I am honored to say that we will miss him, but we are proud that he is now taking on a beautiful bride.    Mr. Chairman, I want to thank you, and thank the witness for appearing as well. Mr. Chairman, for those who are watching today and unfamiliar with the term ``Operation Choke Point,'' it is generally viewed as a Department of Justice initiative aimed at protecting consumers by scrutinizing certain financial institutions and their role in providing access points to the banking system for industries and businesses with higher risk of fraud. And that is what we will be talking about today, Operation Choke Point, for the most part.    Fraudulent transactions in our banking system are a real issue, not to be taken lightly. In 2012, the Federal Reserve estimated that there were 31.1 million unauthorized transactions, worth $6.1 billion, through third-party payment processors, which are businesses that, for a fee, take payments from consumers and deposit them in banks for merchants.    In addition, a 2012 Economist article suggests that in the United States, 42 percent of Americans have experienced some form of payment card fraud in the preceding 5 years. Given that the FDIC is a prudential regulator of many financial institutions that take on consumer deposits, it should come as little surprise that they, too, are interested in addressing fraud in our banking system.    However, we should not confuse the FDIC doing its job as a regulator as evidence that it is doing anything more than fulfilling its mission. Some have gone to great lengths to rely on email exchanges and supervisory guidance to connect the FDIC to this DOJ effort, Operation Choke Point. Reports have been published and accusations leveled.    However, the truth remains that the FDIC had been monitoring and regulating fraud at the financial institutions it oversees long before there was ever a formal Operation Choke Point.    Some may draw attention to a supervisory letter issued by the FDIC in 2011 highlighting a list of high-risk industries as evidence of their involvement in Choke Point by means of prohibiting banks from doing business with entities on this list.    In truth, this was an attempt by the FDIC to help financial institutions be aware of the higher rates of fraud sometimes associated with certain industries. The list was compiled based on input from the third-party payment processors who do business with the industries.    Nonetheless, when notified of concern by banks that their list was potentially being misconstrued and misapplied during examinations, the FDIC took definitive action to clarify that banks could continue doing business, continue their business relationships with any industry, as long as proper due diligence was executed to protect consumers. And that is really what this is about, protecting consumers.    Furthermore, in the interest of eliminating confusion, the FDIC retracted the list. These actions do not equate to a Federal regulator overstepping its bounds to put businesses out of business. In fact, it illustrates a government agency willing to listen to the concerns of the entities it regulates and adjust its actions accordingly.    I would, however, like to take a moment to recognize a more serious issue regarding the off-the-cuff comments made by employees at the FDIC as it relates to the banking relations of certain industries. While I do not think excessive credence should be given to remarks made off-the-cuff, I do expect FDIC examiners to act responsibly.    I understand that an internal Inspector General (IG) investigation is under way to determine whether any misconduct has occurred. Based on the actions already taken by the FDIC to be responsive to the concerns raised, I fully expect the FDIC to address these findings, if any, made by the IG.    I will close by expressing my gratitude to the chairman for his leadership. And I hope that this hearing will clarify the FDIC's longstanding mandate to combat fraud and protect depositors.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400646</t>
   </si>
   <si>
-    <t>Michael G. Fitzpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fitzpatrick. Thank you, Chairman Duffy. And thank you for staying focused on this very important issue.    We are here today because individuals within the Federal Government decided to create a policy that deliberately targeted specific businesses that, in their mind, had questionable business practices or were hurting consumers.    While we can all agree that consumer protection is a noble and worthy task, the personal preferences of unelected bureaucrats should not, and must not, be the policy of the United States. If a company or an individual is breaking the law, they should be held accountable.    However, extrajudicial punishment meted out arbitrarily runs counter to the American rule of law and, frankly, the United States Constitution. These types of actions harm the economic security of our Nation and destroy the trust that is critical between private enterprise and the Federal Government.    It is my hope, Mr. Chairman, that we can come together to understand what the FDIC's involvement was in these practices and create a bipartisan solution to ensure that this never happens again.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you, Mr. Chairman.    Chairman Gruenberg, thank you for being here today.    I will make this very brief. I have been working on this for about 2 years along with the gentleman from Missouri, Mr. Luetkemeyer. We were stunned to learn about it in the very first instance I heard about it, and we have worked diligently to try and stop this program.    And while we had heard that the program had stopped, I have had information come to me as recently as last week that not only is Choke Point not stopped, not only is it just continuing, but it is expanding. It is broader now than it was when Mr. Luetkemeyer and I started. I will talk to you specifically about that during my time.    But I will assure you that there are a lot of folks up here on this dais and folks who are not here today for whom this is the biggest thing back home. This is it. You are talking about Choke Point putting people in my district out of business: pawnshops; payday lenders; gun dealers.    I am from South Carolina, where that is a big part of what we do, and it is a big deal for us. And so, if you perceive a certain passion today in the questions, I hope you understand that this is not something intellectually removed from reality. It is not something that is theoretical. It is not something that is political. This is real. People in my district don't have jobs today because of Choke Point. And I look forward to talking to you more about that.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gruenberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gruenberg. Thank you, Mr. Chairman.    Chairman Duffy, Ranking Member Green, and members of the subcommittee, I appreciate the opportunity today to testify about the FDIC's role with the Department of Justice's Operation Choke Point.    One of the biggest changes in banking over the past decade has been the rapid growth of electronic commerce. With the growth in electronic transactions, there has been a corresponding growth in online illegal activity and consumer fraud. Much of this online activity requires access to the banking system often through third-party payment processors, which has been the focus of supervisory attention.    While the vast majority of electronic transactions are legal, identifying the illegal transactions hidden among the billions of annual transactions is a major challenge for banks and regulators. Banks that help facilitate or ignore warning signs of illegal activity can find themselves held liable for this conduct which, in extreme cases, can even threaten the health of the bank.    As a bank regulator, the FDIC has a responsibility to inform the banks under our supervision about developing risks in the financial system. It also is our responsibility to ensure that banks have policies and procedures in place to identify and monitor these risks and take reasonable measures to manage and address them.    As we have stated, the FDIC's policy is that financial institutions that properly manage relationships and effectively mitigate risks are neither prohibited nor discouraged from providing services to customers, regardless of the customer's business, provided the customers are operating in compliance with applicable State and Federal law.    The FDIC's interaction with the Justice Department's Operation Choke Point grew out of the interest in ensuring the banks under our supervision are not facilitating illegal activity, especially online.    I first learned about the FDIC's interactions with the Justice Department on Operation Choke Point in August of 2013, when I received a letter from Members of Congress expressing concerns that the Justice Department and the FDIC were pressuring banks and third-party payment processors to terminate business relationships with lawful businesses.    Upon inquiring, FDIC staff informed me that in early 2013, staff at the FDIC became aware that the Justice Department was conducting an investigation into the use of banks and third-party payment processors to facilitate illegal and fraudulent activities. It was understood by the FDIC that the Justice Department's efforts were aimed at addressing illegal activity being processed through banks.    The FDIC frequently coordinates with other agencies, both Federal and State, in its supervision of its regulated institutions. Staff informed me that FDIC attorneys communicated and cooperated with Justice Department staff involved in these investigations based on an interest in any illegal activity that may involve FDIC-supervised institutions.    Nonetheless, based on the expressed concerns, it became clear that there was a need to clarify and strengthen the FDIC's supervisory approach and processes. In an attempt to address these concerns, we have taken five significant actions.    First, the FDIC issued a public statement clarifying our policy and supervisory approach. This was intended to ensure that examiners and financial institutions understand that banks with properly managed customer relationships will not be criticized for providing services to customers operating in compliance with applicable Federal and State law.    Second, the FDIC removed the list of examples from our outstanding guidance that was intended to provide greater clarity to the banking industry on how to safely conduct certain customer relationships. That these examples came to be viewed as a prohibition on serving certain customers was clearly, in hindsight, a failure on our part.    Third, the FDIC issued a memorandum to all FDIC supervision staff establishing new documentation and reporting procedures where the FDIC directs the financial institution to discontinue deposit account relationships.    Any such direction by an examiner must be in writing, must identify the legal and regulatory basis for the action, must be approved by the relevant Regional Director before taking effect, and must be reported quarterly to the FDIC Board.    In addition, I met with our six Regional Directors and took part in a nationwide all-hands call with FDIC examiners to make clear our policy and the importance of following the procedures.    Fourth, the FDIC published a toll-free number and email address for both the FDIC ombudsman and the Inspector General to encourage institutions concerned that FDIC supervisory staff are not following FDIC policies on providing banking services to make confidential reports to the ombudsman or IG.    And finally, the FDIC also issued a public statement on derisking, encouraging banks to take a risk-based approach in assessing individual customer relationships rather than declining to provide banking services to entire categories of customers without regard to the risks presented by an individual customer or the financial institution's ability to manage the risk.    Looking forward, as was noted, the FDIC's Inspector General is examining allegations concerning the FDIC's role in Operation Choke Point and allegations that have been made in regard to FDIC employees. We are cooperating fully with the IG. When we receive the report, we will review the findings carefully and take appropriate action to address issues identified with either our procedures or our employees.    That concludes my statement, Mr. Chairman. I will be glad to respond to any questions.    [The prepared statement of Chairman Gruenberg can be found on page 40 of the appendix.]</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>400639</t>
   </si>
   <si>
-    <t>Emanuel Cleaver</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cleaver. Thank you, Mr. Chairman, for the hearing, and Ranking Member Green.    Mr. Chairman, let me ask you a couple of questions. Do you receive any direction from the White House?</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t>412479</t>
   </si>
   <si>
-    <t>Stephen Lee Fincher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fincher. Thank you, Mr. Chairman.    I appreciate the questions from the gentleman on the other side of the aisle, but this is a very serious situation for States like Tennessee, where we have a lot of folks who participate and who deliver this product for the consumer.    This is not about one specific business, but this is about the consumer having a product that they can use to help them get by in their day-to-day life.    According to the report by the House Committee on Oversight and Government Reform, a senior FDIC official effectively ordered a bank to terminate all relationships with payday lenders.    On February 15, 2013, the Director of the Chicago region wrote to a bank's board of directors and informed them that the FDIC had found that activities related to payday lending are unacceptable for an insured depository institution.    So my question is: Explain the legal basis or authority for such a sweeping order in the absence of explicit findings or violations of the law.</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
     <t>412584</t>
   </si>
   <si>
-    <t>Denny Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman.    I am always hesitant to follow my friend from Tennessee, but I will endeavor.    Chairman Gruenberg, several months ago your General Counsel, whose name I think was Osterman--</t>
   </si>
   <si>
@@ -334,9 +310,6 @@
     <t>412405</t>
   </si>
   <si>
-    <t>Scott R. Tipton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman.    I appreciate you, Chairman Gruenberg, for being here today.    I guess I would like to drill down a little bit in terms of, once you have issued this new guidance and it has gone out to the banks, what are you doing to be able to repair that relationship actually with the customers?</t>
   </si>
   <si>
@@ -379,9 +352,6 @@
     <t>412522</t>
   </si>
   <si>
-    <t>Juan Vargas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vargas. Thank you very much, Mr. Chairman, for the opportunity to speak.    And Chairman Gruenberg, thank you for being here today.    Listening to my colleagues here, we all have very different situations. I represent the border area of California and Mexico. My district literally runs from the ocean all the way to Arizona, so every inch of the California-Mexico border is actually in my district. I also have some areas in San Diego and all of Imperial County.    One of the things that we have done for years is try to get banking services in underserved areas, in poor areas, and certainly one of those areas is along the border. The community of San Ysidro and the community of Calexico in the past had a really difficult time trying to get bank branches to open there. But then they were successful through community efforts, as well, I think, as banks saw an opportunity.    One of the things that you do see along the border, of course, are a lot of cash businesses. And the banks, I think, have flourished and done well. And, in fact, I don't think we have had--we have had some problems, but nothing out of the ordinary. But you do see a lot of cash transactions.    Recently we have had a lot of banks close their branches there, in fact, a significant amount. I know I had to go and speak to a couple of the banks to beg them to keep some of the branches open. What they are saying is one of the big reasons is because of this Operation Choke Point, that it has been very difficult for them because of that.    Could you comment on that, if you have any knowledge of that, if you could speak to that at all?</t>
   </si>
   <si>
@@ -463,9 +433,6 @@
     <t>412633</t>
   </si>
   <si>
-    <t>Bruce Poliquin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you for being here, Mr. Chairman. This report from last year concludes that your agency and the people who work for you had a list of firms, of businesses that were questionable, disreputable. And you folks instructed your examiners with a directive listing this group of businesses that were questionable, disreputable in the opinion of your examiners or the folks that you work with in the front office, and instructed banks to put pressure on--or the examiners to put pressure on those banks so they would not extend loans and debit transaction processing and so forth and so on to try to presumably drive these businesses out of business.    Now, what do you say to a three-generation family business outside of Bangor, Maine, that I represent, that sells firearms and ammunitions legally, and also sells tobacco, maybe they sell some fireworks--I'm not done yet. Sorry.</t>
   </si>
   <si>
@@ -592,9 +559,6 @@
     <t>412215</t>
   </si>
   <si>
-    <t>Keith Ellison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ellison. Thank you, Mr. Chairman, and Ranking Member Green. Mr. Gruenberg, I represent a district in Minneapolis, Minnesota, the 5th District of Minnesota. It is home to America's largest Somali American population. We are very proud of our community, and they make tremendous contributions to our society every day. But one of the problems that they are facing is that the money that they earn that they try to remit back home through Somali money service businesses is being reduced tremendously. Is this phenomena where we see the MSBs having their options cut part of Operation Choke Point?</t>
   </si>
   <si>
@@ -1117,9 +1081,6 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Luetkemeyer. Thank you, Mr. Chairman. I thought I had 12 minutes there for a minute. Okay. Down to 5 minutes.    Mr. Chairman, it is good to see you again.</t>
   </si>
   <si>
@@ -1208,9 +1169,6 @@
   </si>
   <si>
     <t>412609</t>
-  </si>
-  <si>
-    <t>J. French Hill</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman, and thank you, Ranking Member Green, for holding this hearing.    Mr. Chairman, I am glad to have you before us. I spent a better part of my career in institutions that had you as a primary regulator, so I appreciate all the hard work and efforts on behalf of the FDIC, which really prompted more shock when I read this package, knowing for 3 decades the work of the FDIC and its staff.    I have a customer in Little Rock who sent me a note, and I just wanted you to be on the record on this question that he had. What would you say to a legally licensed and State and Federally regulated business, like a pawnbroker, who does not use money service businesses, handles all their transactions face to face, doesn't use third-party payment processors, and doesn't use the ACH system and yet still have fallen victim and had their banking relationships cut off because of Operation Choke Point, how would you--what am I supposed to say to that business in my hometown of Little Rock?</t>
@@ -1732,11 +1690,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1756,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1784,11 +1738,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1808,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1836,11 +1786,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1860,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1888,11 +1834,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1912,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1940,11 +1882,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1964,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1990,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2016,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2042,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2068,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2094,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2120,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2146,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2172,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2198,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2224,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2250,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2276,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2302,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2328,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2354,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2382,11 +2290,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2406,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2432,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2458,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2484,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2510,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2536,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2562,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2588,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2614,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2640,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2666,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2692,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2718,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2744,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2770,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2796,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2822,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2850,11 +2722,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2874,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2900,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2926,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2952,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2978,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3004,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3030,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>67</v>
-      </c>
-      <c r="H52" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3056,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3082,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3108,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3134,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3160,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3186,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3212,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3238,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3264,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3290,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3316,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3342,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3370,11 +3202,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3394,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3420,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3446,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3472,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3498,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3524,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3550,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3576,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3602,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>89</v>
-      </c>
-      <c r="H74" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3628,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3654,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3680,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3706,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3732,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3758,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3786,11 +3586,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3810,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3836,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3862,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3888,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3914,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3940,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3966,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3992,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4018,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
+        <v>97</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
         <v>106</v>
-      </c>
-      <c r="H90" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4044,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4070,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4096,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4124,11 +3898,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4148,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4174,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4200,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
-      </c>
-      <c r="G97" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4226,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4252,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4278,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4306,11 +4066,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4330,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4356,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4382,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4408,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4434,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4460,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4486,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4512,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4538,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4564,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4590,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4616,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4642,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4668,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4694,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4720,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4746,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4772,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4798,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4824,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4850,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4878,11 +4594,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4902,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
-      </c>
-      <c r="G124" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4928,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4954,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>148</v>
-      </c>
-      <c r="G126" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4980,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5006,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
-      </c>
-      <c r="G128" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5032,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5058,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>148</v>
-      </c>
-      <c r="G130" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5084,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5110,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>148</v>
-      </c>
-      <c r="G132" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5136,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5162,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>148</v>
-      </c>
-      <c r="G134" t="s">
+        <v>138</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
         <v>149</v>
-      </c>
-      <c r="H134" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5188,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5214,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>148</v>
-      </c>
-      <c r="G136" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5240,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5266,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>148</v>
-      </c>
-      <c r="G138" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5292,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5318,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>148</v>
-      </c>
-      <c r="G140" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5344,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5370,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>148</v>
-      </c>
-      <c r="G142" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5396,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5422,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>148</v>
-      </c>
-      <c r="G144" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5448,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5474,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>148</v>
-      </c>
-      <c r="G146" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5500,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5526,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>148</v>
-      </c>
-      <c r="G148" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5552,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5578,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>148</v>
-      </c>
-      <c r="G150" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5604,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5630,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>148</v>
-      </c>
-      <c r="G152" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5656,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5682,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>148</v>
-      </c>
-      <c r="G154" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5708,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5734,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>148</v>
-      </c>
-      <c r="G156" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5760,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5786,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>148</v>
-      </c>
-      <c r="G158" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5812,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5838,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>148</v>
-      </c>
-      <c r="G160" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5864,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>26</v>
-      </c>
-      <c r="G161" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5890,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>148</v>
-      </c>
-      <c r="G162" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5916,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>26</v>
-      </c>
-      <c r="G163" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5942,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>148</v>
-      </c>
-      <c r="G164" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5968,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>26</v>
-      </c>
-      <c r="G165" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5994,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>148</v>
-      </c>
-      <c r="G166" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6022,11 +5650,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6046,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>191</v>
-      </c>
-      <c r="G168" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6072,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6098,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>191</v>
-      </c>
-      <c r="G170" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6124,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
-      </c>
-      <c r="G171" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6150,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>191</v>
-      </c>
-      <c r="G172" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6176,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6202,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>191</v>
-      </c>
-      <c r="G174" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6228,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>26</v>
-      </c>
-      <c r="G175" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6254,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>191</v>
-      </c>
-      <c r="G176" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6280,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>26</v>
-      </c>
-      <c r="G177" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6306,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
+        <v>180</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
         <v>191</v>
-      </c>
-      <c r="G178" t="s">
-        <v>192</v>
-      </c>
-      <c r="H178" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6332,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>26</v>
-      </c>
-      <c r="G179" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6358,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>191</v>
-      </c>
-      <c r="G180" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6384,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>26</v>
-      </c>
-      <c r="G181" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6410,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>191</v>
-      </c>
-      <c r="G182" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6436,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6462,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>191</v>
-      </c>
-      <c r="G184" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6488,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6514,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>191</v>
-      </c>
-      <c r="G186" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6540,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>26</v>
-      </c>
-      <c r="G187" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6566,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>191</v>
-      </c>
-      <c r="G188" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6592,13 +6176,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>26</v>
-      </c>
-      <c r="G189" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6618,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>191</v>
-      </c>
-      <c r="G190" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6644,13 +6224,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>26</v>
-      </c>
-      <c r="G191" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6670,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>191</v>
-      </c>
-      <c r="G192" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6696,13 +6272,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>26</v>
-      </c>
-      <c r="G193" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6722,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>191</v>
-      </c>
-      <c r="G194" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6748,13 +6320,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>26</v>
-      </c>
-      <c r="G195" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6774,13 +6344,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>191</v>
-      </c>
-      <c r="G196" t="s">
-        <v>192</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6802,11 +6370,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6826,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6854,11 +6418,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6878,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6904,13 +6464,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6930,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6956,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>26</v>
-      </c>
-      <c r="G203" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6982,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7008,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>26</v>
-      </c>
-      <c r="G205" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7034,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7060,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>26</v>
-      </c>
-      <c r="G207" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7086,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
-      </c>
-      <c r="G208" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7112,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>26</v>
-      </c>
-      <c r="G209" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7138,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
-      </c>
-      <c r="G210" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7166,11 +6706,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7190,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7218,11 +6754,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7242,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>26</v>
-      </c>
-      <c r="G214" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7270,11 +6802,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7294,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>26</v>
-      </c>
-      <c r="G216" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7322,11 +6850,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7346,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>26</v>
-      </c>
-      <c r="G218" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7374,11 +6898,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7398,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>26</v>
-      </c>
-      <c r="G220" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7426,11 +6946,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7450,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>26</v>
-      </c>
-      <c r="G222" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7478,11 +6994,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7502,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>26</v>
-      </c>
-      <c r="G224" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7530,11 +7042,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7554,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>26</v>
-      </c>
-      <c r="G226" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7582,11 +7090,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7606,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>26</v>
-      </c>
-      <c r="G228" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7634,11 +7138,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7658,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>26</v>
-      </c>
-      <c r="G230" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7686,11 +7186,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7710,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>26</v>
-      </c>
-      <c r="G232" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7738,11 +7234,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7762,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>26</v>
-      </c>
-      <c r="G234" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7790,11 +7282,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7814,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>26</v>
-      </c>
-      <c r="G236" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7842,11 +7330,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7866,13 +7352,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>26</v>
-      </c>
-      <c r="G238" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7894,11 +7378,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7918,13 +7400,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>26</v>
-      </c>
-      <c r="G240" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7946,11 +7426,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7970,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>26</v>
-      </c>
-      <c r="G242" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7998,11 +7474,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8022,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>26</v>
-      </c>
-      <c r="G244" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8050,11 +7522,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8074,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>26</v>
-      </c>
-      <c r="G246" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8102,11 +7570,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8126,13 +7592,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>26</v>
-      </c>
-      <c r="G248" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8154,11 +7618,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>12</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8178,13 +7640,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>26</v>
-      </c>
-      <c r="G250" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8206,11 +7666,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8230,13 +7688,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>26</v>
-      </c>
-      <c r="G252" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8258,11 +7714,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8282,13 +7736,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>26</v>
-      </c>
-      <c r="G254" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8310,11 +7762,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8334,13 +7784,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>26</v>
-      </c>
-      <c r="G256" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8362,11 +7810,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8386,13 +7832,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>26</v>
-      </c>
-      <c r="G258" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8414,11 +7858,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8438,13 +7880,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>26</v>
-      </c>
-      <c r="G260" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8466,11 +7906,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8490,13 +7928,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>26</v>
-      </c>
-      <c r="G262" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8518,11 +7954,9 @@
       <c r="F263" t="s">
         <v>11</v>
       </c>
-      <c r="G263" t="s">
-        <v>12</v>
-      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8542,13 +7976,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>26</v>
-      </c>
-      <c r="G264" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8570,11 +8002,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8594,13 +8024,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>26</v>
-      </c>
-      <c r="G266" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8622,11 +8050,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8646,13 +8072,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>26</v>
-      </c>
-      <c r="G268" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8674,11 +8098,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8698,13 +8120,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>26</v>
-      </c>
-      <c r="G270" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8726,11 +8146,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>12</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8750,13 +8168,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>26</v>
-      </c>
-      <c r="G272" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8778,11 +8194,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8802,13 +8216,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>26</v>
-      </c>
-      <c r="G274" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8830,11 +8242,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8854,13 +8264,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>26</v>
-      </c>
-      <c r="G276" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8882,11 +8290,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>12</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8906,13 +8312,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>26</v>
-      </c>
-      <c r="G278" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8934,11 +8338,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8958,13 +8360,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>26</v>
-      </c>
-      <c r="G280" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8986,11 +8386,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9010,13 +8408,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>26</v>
-      </c>
-      <c r="G282" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9038,11 +8434,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9062,13 +8456,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>26</v>
-      </c>
-      <c r="G284" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9090,11 +8482,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9114,13 +8504,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>26</v>
-      </c>
-      <c r="G286" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9142,11 +8530,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9166,13 +8552,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>26</v>
-      </c>
-      <c r="G288" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9194,11 +8578,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9218,13 +8600,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>26</v>
-      </c>
-      <c r="G290" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9246,11 +8626,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9270,13 +8648,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>26</v>
-      </c>
-      <c r="G292" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9298,11 +8674,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9322,13 +8696,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>26</v>
-      </c>
-      <c r="G294" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9350,11 +8722,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9374,13 +8744,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>26</v>
-      </c>
-      <c r="G296" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9402,11 +8770,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9426,13 +8792,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>26</v>
-      </c>
-      <c r="G298" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9454,11 +8818,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9478,13 +8840,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>26</v>
-      </c>
-      <c r="G300" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9506,11 +8866,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9530,13 +8888,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>26</v>
-      </c>
-      <c r="G302" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9558,11 +8914,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9582,13 +8936,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>26</v>
-      </c>
-      <c r="G304" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9610,11 +8962,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9634,13 +8984,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>26</v>
-      </c>
-      <c r="G306" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9662,11 +9010,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9686,13 +9032,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>26</v>
-      </c>
-      <c r="G308" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9714,11 +9058,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9738,13 +9080,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>26</v>
-      </c>
-      <c r="G310" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9766,11 +9106,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9790,13 +9128,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>26</v>
-      </c>
-      <c r="G312" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9818,11 +9154,9 @@
       <c r="F313" t="s">
         <v>11</v>
       </c>
-      <c r="G313" t="s">
-        <v>12</v>
-      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9842,13 +9176,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>26</v>
-      </c>
-      <c r="G314" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9870,11 +9202,9 @@
       <c r="F315" t="s">
         <v>11</v>
       </c>
-      <c r="G315" t="s">
-        <v>12</v>
-      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9894,13 +9224,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>26</v>
-      </c>
-      <c r="G316" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9922,11 +9250,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9946,13 +9272,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>26</v>
-      </c>
-      <c r="G318" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9974,11 +9298,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>12</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9998,13 +9320,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>26</v>
-      </c>
-      <c r="G320" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10026,11 +9346,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10050,13 +9368,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>26</v>
-      </c>
-      <c r="G322" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10078,11 +9394,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10102,13 +9416,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>26</v>
-      </c>
-      <c r="G324" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10130,11 +9442,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10154,13 +9464,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>26</v>
-      </c>
-      <c r="G326" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10182,11 +9490,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>12</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10206,13 +9512,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>26</v>
-      </c>
-      <c r="G328" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10234,11 +9538,9 @@
       <c r="F329" t="s">
         <v>11</v>
       </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10258,13 +9560,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>26</v>
-      </c>
-      <c r="G330" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10286,11 +9586,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>12</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10310,13 +9608,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>26</v>
-      </c>
-      <c r="G332" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10338,11 +9634,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>12</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10362,13 +9656,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>26</v>
-      </c>
-      <c r="G334" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10390,11 +9682,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10414,13 +9704,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>26</v>
-      </c>
-      <c r="G336" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10442,11 +9730,9 @@
       <c r="F337" t="s">
         <v>11</v>
       </c>
-      <c r="G337" t="s">
-        <v>12</v>
-      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10466,13 +9752,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>26</v>
-      </c>
-      <c r="G338" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10494,11 +9778,9 @@
       <c r="F339" t="s">
         <v>11</v>
       </c>
-      <c r="G339" t="s">
-        <v>12</v>
-      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10518,13 +9800,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>26</v>
-      </c>
-      <c r="G340" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10546,11 +9826,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10570,13 +9848,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>26</v>
-      </c>
-      <c r="G342" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10598,11 +9874,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>12</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10622,13 +9896,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>26</v>
-      </c>
-      <c r="G344" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10650,11 +9922,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10674,13 +9944,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>26</v>
-      </c>
-      <c r="G346" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10702,11 +9970,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10726,13 +9992,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>26</v>
-      </c>
-      <c r="G348" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10754,11 +10018,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10778,13 +10040,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>26</v>
-      </c>
-      <c r="G350" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10806,11 +10066,9 @@
       <c r="F351" t="s">
         <v>11</v>
       </c>
-      <c r="G351" t="s">
-        <v>12</v>
-      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10830,13 +10088,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>26</v>
-      </c>
-      <c r="G352" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10858,11 +10114,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10882,13 +10136,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>366</v>
-      </c>
-      <c r="G354" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10908,13 +10160,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>26</v>
-      </c>
-      <c r="G355" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10934,13 +10184,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>366</v>
-      </c>
-      <c r="G356" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10960,13 +10208,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>26</v>
-      </c>
-      <c r="G357" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10986,13 +10232,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>366</v>
-      </c>
-      <c r="G358" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11012,13 +10256,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>26</v>
-      </c>
-      <c r="G359" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11038,13 +10280,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>366</v>
-      </c>
-      <c r="G360" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11064,13 +10304,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>26</v>
-      </c>
-      <c r="G361" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11090,13 +10328,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>366</v>
-      </c>
-      <c r="G362" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11116,13 +10352,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>26</v>
-      </c>
-      <c r="G363" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11142,13 +10376,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>366</v>
-      </c>
-      <c r="G364" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11168,13 +10400,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>26</v>
-      </c>
-      <c r="G365" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11194,13 +10424,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
+        <v>354</v>
+      </c>
+      <c r="G366" t="s"/>
+      <c r="H366" t="s">
         <v>366</v>
-      </c>
-      <c r="G366" t="s">
-        <v>367</v>
-      </c>
-      <c r="H366" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11220,13 +10448,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>26</v>
-      </c>
-      <c r="G367" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11246,13 +10472,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>366</v>
-      </c>
-      <c r="G368" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11272,13 +10496,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>26</v>
-      </c>
-      <c r="G369" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11298,13 +10520,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>366</v>
-      </c>
-      <c r="G370" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11324,13 +10544,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>26</v>
-      </c>
-      <c r="G371" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11350,13 +10568,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>366</v>
-      </c>
-      <c r="G372" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11376,13 +10592,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>26</v>
-      </c>
-      <c r="G373" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11402,13 +10616,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>366</v>
-      </c>
-      <c r="G374" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11428,13 +10640,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>26</v>
-      </c>
-      <c r="G375" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11454,13 +10664,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>366</v>
-      </c>
-      <c r="G376" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11480,13 +10688,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>26</v>
-      </c>
-      <c r="G377" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11506,13 +10712,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>366</v>
-      </c>
-      <c r="G378" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11532,13 +10736,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>26</v>
-      </c>
-      <c r="G379" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11560,11 +10762,9 @@
       <c r="F380" t="s">
         <v>11</v>
       </c>
-      <c r="G380" t="s">
-        <v>12</v>
-      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11584,13 +10784,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>366</v>
-      </c>
-      <c r="G381" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11612,11 +10810,9 @@
       <c r="F382" t="s">
         <v>11</v>
       </c>
-      <c r="G382" t="s">
-        <v>12</v>
-      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11636,13 +10832,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>14</v>
-      </c>
-      <c r="G383" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11664,11 +10858,9 @@
       <c r="F384" t="s">
         <v>11</v>
       </c>
-      <c r="G384" t="s">
-        <v>12</v>
-      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11688,13 +10880,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>397</v>
-      </c>
-      <c r="G385" t="s">
-        <v>398</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11714,13 +10904,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>26</v>
-      </c>
-      <c r="G386" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11740,13 +10928,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>397</v>
-      </c>
-      <c r="G387" t="s">
-        <v>398</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11766,13 +10952,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>26</v>
-      </c>
-      <c r="G388" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11792,13 +10976,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>397</v>
-      </c>
-      <c r="G389" t="s">
-        <v>398</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11818,13 +11000,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>26</v>
-      </c>
-      <c r="G390" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11844,13 +11024,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>397</v>
-      </c>
-      <c r="G391" t="s">
-        <v>398</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11870,13 +11048,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>26</v>
-      </c>
-      <c r="G392" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11896,13 +11072,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>397</v>
-      </c>
-      <c r="G393" t="s">
-        <v>398</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11922,13 +11096,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>26</v>
-      </c>
-      <c r="G394" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11948,13 +11120,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>397</v>
-      </c>
-      <c r="G395" t="s">
-        <v>398</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11974,13 +11144,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>26</v>
-      </c>
-      <c r="G396" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12000,13 +11168,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
+        <v>384</v>
+      </c>
+      <c r="G397" t="s"/>
+      <c r="H397" t="s">
         <v>397</v>
-      </c>
-      <c r="G397" t="s">
-        <v>398</v>
-      </c>
-      <c r="H397" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12026,13 +11192,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>26</v>
-      </c>
-      <c r="G398" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12052,13 +11216,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>397</v>
-      </c>
-      <c r="G399" t="s">
-        <v>398</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12078,13 +11240,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>26</v>
-      </c>
-      <c r="G400" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12104,13 +11264,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>397</v>
-      </c>
-      <c r="G401" t="s">
-        <v>398</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12132,11 +11290,9 @@
       <c r="F402" t="s">
         <v>11</v>
       </c>
-      <c r="G402" t="s">
-        <v>12</v>
-      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12156,13 +11312,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>14</v>
-      </c>
-      <c r="G403" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12182,13 +11336,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>26</v>
-      </c>
-      <c r="G404" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12208,13 +11360,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>14</v>
-      </c>
-      <c r="G405" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12234,13 +11384,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>26</v>
-      </c>
-      <c r="G406" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12260,13 +11408,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>14</v>
-      </c>
-      <c r="G407" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12286,13 +11432,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>26</v>
-      </c>
-      <c r="G408" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12312,13 +11456,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>14</v>
-      </c>
-      <c r="G409" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12338,13 +11480,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>26</v>
-      </c>
-      <c r="G410" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12364,13 +11504,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>14</v>
-      </c>
-      <c r="G411" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12390,13 +11528,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>26</v>
-      </c>
-      <c r="G412" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12416,13 +11552,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>14</v>
-      </c>
-      <c r="G413" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12442,13 +11576,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>26</v>
-      </c>
-      <c r="G414" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12468,13 +11600,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>14</v>
-      </c>
-      <c r="G415" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12494,13 +11624,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>26</v>
-      </c>
-      <c r="G416" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12520,13 +11648,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>14</v>
-      </c>
-      <c r="G417" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12546,13 +11672,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
+        <v>22</v>
+      </c>
+      <c r="G418" t="s"/>
+      <c r="H418" t="s">
         <v>26</v>
-      </c>
-      <c r="G418" t="s">
-        <v>27</v>
-      </c>
-      <c r="H418" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12572,13 +11696,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>14</v>
-      </c>
-      <c r="G419" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12598,13 +11720,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>26</v>
-      </c>
-      <c r="G420" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12624,13 +11744,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>14</v>
-      </c>
-      <c r="G421" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12650,13 +11768,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>26</v>
-      </c>
-      <c r="G422" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12676,13 +11792,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>14</v>
-      </c>
-      <c r="G423" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12702,13 +11816,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>26</v>
-      </c>
-      <c r="G424" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12728,13 +11840,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>14</v>
-      </c>
-      <c r="G425" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12756,11 +11866,9 @@
       <c r="F426" t="s">
         <v>11</v>
       </c>
-      <c r="G426" t="s">
-        <v>12</v>
-      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
